--- a/biology/Botanique/Rosa_beggeriana/Rosa_beggeriana.xlsx
+++ b/biology/Botanique/Rosa_beggeriana/Rosa_beggeriana.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rosa beggeriana est une espèce de plantes à fleurs de la famille des Rosaceae. C'est un rosier classé dans la section des Gymnocarpae, originaire d'Afghanistan, de Chine (Gansu, Xinjiang), du Kazakhstan et de Mongolie.
 On le rencontre dans les régions montagneuses, entre 900 et 2 000 m d'altitude, notamment sur les rives des cours d'eau et les bords de routes.
@@ -513,7 +525,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Il en existe deux variétés :
 Rosa beggeriana var. beggeriana
@@ -545,7 +559,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rosa anserinaefolia Boiss.
 Rosa silverhielmii Schrenk
@@ -577,7 +593,9 @@
           <t>Description[1]</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un buisson haut de 2,5 mètres, aux tiges munies d'aiguillons crochus. Les jeunes pousses sont rouge brun.
 Les feuilles sont d'un vert grisâtre et comptent en général sept folioles.
@@ -610,9 +628,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Introduit en Europe occidentale vers 1880, il est rarement cultivé aujourd'hui, disponible dans de rares pépinières[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Introduit en Europe occidentale vers 1880, il est rarement cultivé aujourd'hui, disponible dans de rares pépinières.
 </t>
         </is>
       </c>
